--- a/public/files/constancias_plantilla.xlsx
+++ b/public/files/constancias_plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lalo Barriguett\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BB1B30-6627-46E0-8229-39C1472DC3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400FBCD4-84DA-49FF-A094-150EEDB4B737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1522" yWindow="1522" windowWidth="19562" windowHeight="10351" xr2:uid="{DD8EE90C-D70B-4239-8449-94FBA9652F9B}"/>
+    <workbookView xWindow="2201" yWindow="2201" windowWidth="19562" windowHeight="10351" xr2:uid="{DD8EE90C-D70B-4239-8449-94FBA9652F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <t>Ensayo,</t>
   </si>
   <si>
-    <t>admin_id</t>
+    <t>plantilla_id</t>
   </si>
 </sst>
 </file>
@@ -284,6 +284,7 @@
     <filterColumn colId="22" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="23">
+    <tableColumn id="23" xr3:uid="{AA8497CE-91D6-4D60-B682-C58B7F4DE0DF}" name="plantilla_id"/>
     <tableColumn id="1" xr3:uid="{2C22B74D-CB15-48A5-8D4E-70F403D66EF6}" name="user_id"/>
     <tableColumn id="2" xr3:uid="{46C96A71-3B07-43FC-B02E-0E47F8AC7A68}" name="name"/>
     <tableColumn id="3" xr3:uid="{2A875EF9-B9CA-4CAC-994F-2C52EEAF5753}" name="email"/>
@@ -306,7 +307,6 @@
     <tableColumn id="20" xr3:uid="{A394B959-5C2D-4E3C-9EF7-EB2EE8D55B7D}" name="validacion"/>
     <tableColumn id="21" xr3:uid="{95E02D26-B7F6-4422-AAD3-BAACE82E41FF}" name="factor_esdeped"/>
     <tableColumn id="22" xr3:uid="{5866BE38-DC08-4704-ABD2-E930DCB74106}" name="concepto_esdeped"/>
-    <tableColumn id="24" xr3:uid="{AD3D1BC3-E52B-4D93-9E37-8F0B35F77624}" name="admin_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAD0F04-E405-4486-B3F4-A9A9DBB1B506}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -660,209 +660,209 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>201858946</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="5">
+      <c r="T2" s="5">
         <v>45515</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>38</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>39</v>
-      </c>
-      <c r="W2">
-        <v>201858940</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
         <v>201858948</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>33</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>34</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="5">
+      <c r="T3" s="5">
         <v>45516</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>37</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>38</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>40</v>
-      </c>
-      <c r="W3">
-        <v>201858940</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{8D82B2F8-D9C5-4844-B8DE-1D525AF6572E}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{9E0DE8DD-701D-434D-A05E-46D516705A64}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{8D82B2F8-D9C5-4844-B8DE-1D525AF6572E}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{9E0DE8DD-701D-434D-A05E-46D516705A64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
